--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\spring-boot-rest-client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>HatApps</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>AAA,BBB,CCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppImg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,18 +511,24 @@
     <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="24.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -533,8 +547,17 @@
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,8 +576,17 @@
       <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -573,8 +605,17 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -585,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
